--- a/Medidas.xlsx
+++ b/Medidas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramir\Documents\TEC\TEC\Proyecto de Asistencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8180283A-D96A-4DF1-A8A3-F18E232F2E57}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{900C259C-18AE-4AE1-A49A-57C0F16EA4A4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8130" xr2:uid="{8AD1B6F2-2965-4D29-8DCF-225BCB9C9267}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Nombre</t>
   </si>
@@ -39,10 +39,7 @@
     <t>Número</t>
   </si>
   <si>
-    <t>Nominal Aumenta</t>
-  </si>
-  <si>
-    <t>Nominal Disminuye</t>
+    <t>Nominal</t>
   </si>
 </sst>
 </file>
@@ -394,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705FE64A-8129-425B-B382-2E46317ADC09}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,11 +424,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
